--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,14 +14,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>Quarterly Results of Genesys International Corporation(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Sep '13</t>
+  </si>
+  <si>
+    <t>Dec '13</t>
+  </si>
+  <si>
+    <t>Mar '14</t>
+  </si>
+  <si>
+    <t>Jun '14</t>
+  </si>
+  <si>
+    <t>Sep '14</t>
+  </si>
+  <si>
+    <t>Dec '14</t>
+  </si>
+  <si>
+    <t>Mar '15</t>
+  </si>
+  <si>
+    <t>Jun '15</t>
+  </si>
+  <si>
+    <t>Sep '15</t>
+  </si>
+  <si>
+    <t>Dec '15</t>
+  </si>
+  <si>
+    <t>Mar '16</t>
+  </si>
+  <si>
+    <t>Jun '16</t>
+  </si>
+  <si>
+    <t>Sep '16</t>
+  </si>
+  <si>
+    <t>Dec '16</t>
+  </si>
+  <si>
+    <t>Mar '17</t>
+  </si>
+  <si>
+    <t>Jun '17</t>
+  </si>
+  <si>
+    <t>Sep '17</t>
+  </si>
+  <si>
+    <t>Dec '17</t>
+  </si>
+  <si>
+    <t>Mar '18</t>
+  </si>
+  <si>
+    <t>Jun '18</t>
+  </si>
+  <si>
+    <t>Sep '18</t>
+  </si>
+  <si>
+    <t>Dec '18</t>
+  </si>
+  <si>
+    <t>Mar '19</t>
+  </si>
+  <si>
+    <t>Jun '19</t>
+  </si>
+  <si>
+    <t>Sep '19</t>
+  </si>
+  <si>
+    <t>Dec '19</t>
+  </si>
+  <si>
+    <t>Mar '20</t>
+  </si>
+  <si>
+    <t>Jun '20</t>
+  </si>
+  <si>
+    <t>Sep '20</t>
+  </si>
+  <si>
+    <t>Dec '20</t>
+  </si>
+  <si>
+    <t>Mar '21</t>
+  </si>
+  <si>
+    <t>Jun '21</t>
+  </si>
+  <si>
+    <t>Sep '21</t>
+  </si>
+  <si>
+    <t>Dec '21</t>
+  </si>
+  <si>
+    <t>Mar '22</t>
+  </si>
+  <si>
+    <t>Jun '22</t>
+  </si>
+  <si>
+    <t>Sep '22</t>
+  </si>
+  <si>
+    <t>Dec '22</t>
+  </si>
+  <si>
+    <t>Mar '23</t>
+  </si>
+  <si>
+    <t>Jun '23</t>
+  </si>
+  <si>
+    <t>Sep '23</t>
+  </si>
+  <si>
+    <t>Dec '23</t>
+  </si>
+  <si>
+    <t>Mar '24</t>
+  </si>
+  <si>
+    <t>Jun '24</t>
+  </si>
+  <si>
+    <t>Sep '24</t>
+  </si>
+  <si>
     <t>Net Sales/Income from operations</t>
   </si>
   <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>12.45</t>
+  </si>
+  <si>
+    <t>18.13</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>20.37</t>
+  </si>
+  <si>
+    <t>17.07</t>
+  </si>
+  <si>
+    <t>28.19</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>30.33</t>
+  </si>
+  <si>
+    <t>31.06</t>
+  </si>
+  <si>
+    <t>22.32</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>30.51</t>
+  </si>
+  <si>
+    <t>40.46</t>
+  </si>
+  <si>
+    <t>37.01</t>
+  </si>
+  <si>
+    <t>27.64</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>21.54</t>
+  </si>
+  <si>
+    <t>23.19</t>
+  </si>
+  <si>
+    <t>31.22</t>
+  </si>
+  <si>
+    <t>13.67</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>39.03</t>
+  </si>
+  <si>
+    <t>35.44</t>
+  </si>
+  <si>
+    <t>42.62</t>
+  </si>
+  <si>
+    <t>37.13</t>
+  </si>
+  <si>
+    <t>54.07</t>
+  </si>
+  <si>
+    <t>46.09</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>32.85</t>
+  </si>
+  <si>
+    <t>57.71</t>
+  </si>
+  <si>
+    <t>69.73</t>
+  </si>
+  <si>
+    <t>55.26</t>
+  </si>
+  <si>
+    <t>70.92</t>
+  </si>
+  <si>
     <t>Total Income From Operations</t>
   </si>
   <si>
@@ -74,141 +347,6 @@
   </si>
   <si>
     <t>Diluted EPS.</t>
-  </si>
-  <si>
-    <t>Sep '13</t>
-  </si>
-  <si>
-    <t>Dec '13</t>
-  </si>
-  <si>
-    <t>Mar '14</t>
-  </si>
-  <si>
-    <t>Jun '14</t>
-  </si>
-  <si>
-    <t>Sep '14</t>
-  </si>
-  <si>
-    <t>Dec '14</t>
-  </si>
-  <si>
-    <t>Mar '15</t>
-  </si>
-  <si>
-    <t>Jun '15</t>
-  </si>
-  <si>
-    <t>Sep '15</t>
-  </si>
-  <si>
-    <t>Dec '15</t>
-  </si>
-  <si>
-    <t>Mar '16</t>
-  </si>
-  <si>
-    <t>Jun '16</t>
-  </si>
-  <si>
-    <t>Sep '16</t>
-  </si>
-  <si>
-    <t>Dec '16</t>
-  </si>
-  <si>
-    <t>Mar '17</t>
-  </si>
-  <si>
-    <t>Jun '17</t>
-  </si>
-  <si>
-    <t>Sep '17</t>
-  </si>
-  <si>
-    <t>Dec '17</t>
-  </si>
-  <si>
-    <t>Mar '18</t>
-  </si>
-  <si>
-    <t>Jun '18</t>
-  </si>
-  <si>
-    <t>Sep '18</t>
-  </si>
-  <si>
-    <t>Dec '18</t>
-  </si>
-  <si>
-    <t>Mar '19</t>
-  </si>
-  <si>
-    <t>Jun '19</t>
-  </si>
-  <si>
-    <t>Sep '19</t>
-  </si>
-  <si>
-    <t>Dec '19</t>
-  </si>
-  <si>
-    <t>Mar '20</t>
-  </si>
-  <si>
-    <t>Jun '20</t>
-  </si>
-  <si>
-    <t>Sep '20</t>
-  </si>
-  <si>
-    <t>Dec '20</t>
-  </si>
-  <si>
-    <t>Mar '21</t>
-  </si>
-  <si>
-    <t>Jun '21</t>
-  </si>
-  <si>
-    <t>Sep '21</t>
-  </si>
-  <si>
-    <t>Dec '21</t>
-  </si>
-  <si>
-    <t>Mar '22</t>
-  </si>
-  <si>
-    <t>Jun '22</t>
-  </si>
-  <si>
-    <t>Sep '22</t>
-  </si>
-  <si>
-    <t>Dec '22</t>
-  </si>
-  <si>
-    <t>Mar '23</t>
-  </si>
-  <si>
-    <t>Jun '23</t>
-  </si>
-  <si>
-    <t>Sep '23</t>
-  </si>
-  <si>
-    <t>Dec '23</t>
-  </si>
-  <si>
-    <t>Mar '24</t>
-  </si>
-  <si>
-    <t>Jun '24</t>
-  </si>
-  <si>
-    <t>Sep '24</t>
   </si>
 </sst>
 </file>
@@ -566,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,2725 +714,2725 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>23.05</v>
-      </c>
-      <c r="C2">
-        <v>23.05</v>
-      </c>
-      <c r="D2">
-        <v>9.32</v>
-      </c>
-      <c r="E2">
-        <v>2.89</v>
-      </c>
-      <c r="F2">
-        <v>5.96</v>
-      </c>
-      <c r="G2">
-        <v>4.88</v>
-      </c>
-      <c r="H2">
-        <v>1.74</v>
-      </c>
-      <c r="I2">
-        <v>6.62</v>
-      </c>
-      <c r="J2">
-        <v>0.49</v>
-      </c>
-      <c r="K2">
-        <v>6.12</v>
-      </c>
-      <c r="L2">
-        <v>6.12</v>
-      </c>
-      <c r="M2">
-        <v>1.55</v>
-      </c>
-      <c r="N2">
-        <v>4.57</v>
-      </c>
-      <c r="O2">
-        <v>4.57</v>
-      </c>
-      <c r="P2">
-        <v>14.92</v>
-      </c>
-      <c r="Q2">
-        <v>1.53</v>
-      </c>
-      <c r="R2">
-        <v>1.53</v>
-      </c>
-      <c r="S2">
-        <v>1.53</v>
-      </c>
-      <c r="T2">
-        <v>1.53</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>16.14</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>16.14</v>
+        <v>23.05</v>
       </c>
       <c r="D3">
-        <v>7.52</v>
+        <v>9.32</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="F3">
-        <v>5.49</v>
+        <v>5.96</v>
       </c>
       <c r="G3">
-        <v>0.64</v>
+        <v>4.88</v>
       </c>
       <c r="H3">
-        <v>0.19</v>
+        <v>1.74</v>
       </c>
       <c r="I3">
-        <v>0.83</v>
+        <v>6.62</v>
       </c>
       <c r="J3">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="K3">
-        <v>0.31</v>
+        <v>6.12</v>
       </c>
       <c r="L3">
-        <v>0.31</v>
+        <v>6.12</v>
       </c>
       <c r="M3">
-        <v>-0.11</v>
+        <v>1.55</v>
       </c>
       <c r="N3">
-        <v>0.43</v>
+        <v>4.57</v>
       </c>
       <c r="O3">
-        <v>0.43</v>
+        <v>4.57</v>
       </c>
       <c r="P3">
         <v>14.92</v>
       </c>
       <c r="Q3">
-        <v>0.14</v>
+        <v>1.53</v>
       </c>
       <c r="R3">
-        <v>0.14</v>
+        <v>1.53</v>
       </c>
       <c r="S3">
-        <v>0.14</v>
+        <v>1.53</v>
       </c>
       <c r="T3">
-        <v>0.14</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>5.75</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>16.14</v>
       </c>
       <c r="D4">
-        <v>5.81</v>
+        <v>7.52</v>
       </c>
       <c r="E4">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="F4">
-        <v>4.58</v>
+        <v>5.49</v>
       </c>
       <c r="G4">
-        <v>-6.13</v>
+        <v>0.64</v>
       </c>
       <c r="H4">
-        <v>-0.4</v>
+        <v>0.19</v>
       </c>
       <c r="I4">
-        <v>-6.53</v>
+        <v>0.83</v>
       </c>
       <c r="J4">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
       <c r="K4">
-        <v>-6.87</v>
+        <v>0.31</v>
       </c>
       <c r="L4">
-        <v>-6.87</v>
+        <v>0.31</v>
       </c>
       <c r="M4">
-        <v>-1.33</v>
+        <v>-0.11</v>
       </c>
       <c r="N4">
-        <v>-5.54</v>
+        <v>0.43</v>
       </c>
       <c r="O4">
-        <v>-5.57</v>
+        <v>0.43</v>
       </c>
       <c r="P4">
         <v>14.92</v>
       </c>
       <c r="Q4">
-        <v>-1.87</v>
+        <v>0.14</v>
       </c>
       <c r="R4">
-        <v>-1.87</v>
+        <v>0.14</v>
       </c>
       <c r="S4">
-        <v>-1.87</v>
+        <v>0.14</v>
       </c>
       <c r="T4">
-        <v>-1.87</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>15.96</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>15.96</v>
+        <v>5.75</v>
       </c>
       <c r="D5">
-        <v>6.36</v>
+        <v>5.81</v>
       </c>
       <c r="E5">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="F5">
-        <v>5.76</v>
+        <v>4.58</v>
       </c>
       <c r="G5">
-        <v>1.73</v>
+        <v>-6.13</v>
       </c>
       <c r="H5">
-        <v>0.59</v>
+        <v>-0.4</v>
       </c>
       <c r="I5">
-        <v>2.33</v>
+        <v>-6.53</v>
       </c>
       <c r="J5">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="K5">
-        <v>1.91</v>
+        <v>-6.87</v>
       </c>
       <c r="L5">
-        <v>1.91</v>
+        <v>-6.87</v>
       </c>
       <c r="M5">
-        <v>0.16</v>
+        <v>-1.33</v>
       </c>
       <c r="N5">
-        <v>1.74</v>
+        <v>-5.54</v>
       </c>
       <c r="O5">
-        <v>1.74</v>
+        <v>-5.57</v>
       </c>
       <c r="P5">
         <v>14.92</v>
       </c>
       <c r="Q5">
-        <v>0.58</v>
+        <v>-1.87</v>
       </c>
       <c r="R5">
-        <v>0.58</v>
+        <v>-1.87</v>
       </c>
       <c r="S5">
-        <v>0.58</v>
+        <v>-1.87</v>
       </c>
       <c r="T5">
-        <v>0.58</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>15.53</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>15.53</v>
+        <v>15.96</v>
       </c>
       <c r="D6">
-        <v>6.45</v>
+        <v>6.36</v>
       </c>
       <c r="E6">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="F6">
-        <v>4.9</v>
+        <v>5.76</v>
       </c>
       <c r="G6">
-        <v>0.62</v>
+        <v>1.73</v>
       </c>
       <c r="H6">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I6">
-        <v>1.15</v>
+        <v>2.33</v>
       </c>
       <c r="J6">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="K6">
-        <v>0.63</v>
+        <v>1.91</v>
       </c>
       <c r="L6">
-        <v>0.63</v>
+        <v>1.91</v>
       </c>
       <c r="M6">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="N6">
-        <v>0.29</v>
+        <v>1.74</v>
       </c>
       <c r="O6">
-        <v>0.29</v>
+        <v>1.74</v>
       </c>
       <c r="P6">
         <v>14.92</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="S6">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="T6">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>14.7</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>14.7</v>
+        <v>15.53</v>
       </c>
       <c r="D7">
-        <v>5.87</v>
+        <v>6.45</v>
       </c>
       <c r="E7">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="F7">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="G7">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="H7">
-        <v>1.47</v>
+        <v>0.53</v>
       </c>
       <c r="I7">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="J7">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="K7">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
       <c r="L7">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
       <c r="M7">
-        <v>-0.14</v>
+        <v>0.34</v>
       </c>
       <c r="N7">
-        <v>1.21</v>
+        <v>0.29</v>
       </c>
       <c r="O7">
-        <v>1.21</v>
+        <v>0.29</v>
       </c>
       <c r="P7">
         <v>14.92</v>
       </c>
       <c r="Q7">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="T7">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>14.07</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>14.07</v>
+        <v>14.7</v>
       </c>
       <c r="D8">
-        <v>3.48</v>
+        <v>5.87</v>
       </c>
       <c r="E8">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="F8">
-        <v>3.89</v>
+        <v>4.45</v>
       </c>
       <c r="G8">
-        <v>2.02</v>
+        <v>0.08</v>
       </c>
       <c r="H8">
-        <v>-0.04</v>
+        <v>1.47</v>
       </c>
       <c r="I8">
-        <v>1.97</v>
+        <v>1.56</v>
       </c>
       <c r="J8">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="K8">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="L8">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="M8">
-        <v>0.19</v>
+        <v>-0.14</v>
       </c>
       <c r="N8">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="O8">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P8">
-        <v>15.22</v>
+        <v>14.92</v>
       </c>
       <c r="Q8">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="R8">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="S8">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="T8">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>13.28</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>13.28</v>
+        <v>14.07</v>
       </c>
       <c r="D9">
-        <v>5.68</v>
+        <v>3.48</v>
       </c>
       <c r="E9">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="F9">
-        <v>3.93</v>
+        <v>3.89</v>
       </c>
       <c r="G9">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="H9">
-        <v>2.2</v>
+        <v>-0.04</v>
       </c>
       <c r="I9">
-        <v>4.03</v>
+        <v>1.97</v>
       </c>
       <c r="J9">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="K9">
-        <v>3.65</v>
+        <v>1.53</v>
       </c>
       <c r="L9">
-        <v>3.65</v>
+        <v>1.53</v>
       </c>
       <c r="M9">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="N9">
-        <v>3.17</v>
+        <v>1.33</v>
       </c>
       <c r="O9">
-        <v>3.17</v>
+        <v>1.33</v>
       </c>
       <c r="P9">
         <v>15.22</v>
       </c>
       <c r="Q9">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
       <c r="R9">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
       <c r="S9">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
       <c r="T9">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>10.16</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>10.16</v>
+        <v>13.28</v>
       </c>
       <c r="D10">
-        <v>6.37</v>
+        <v>5.68</v>
       </c>
       <c r="E10">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="F10">
-        <v>3.33</v>
+        <v>3.93</v>
       </c>
       <c r="G10">
-        <v>-1.43</v>
+        <v>1.82</v>
       </c>
       <c r="H10">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>0.51</v>
+        <v>4.03</v>
       </c>
       <c r="J10">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="K10">
-        <v>0.12</v>
+        <v>3.65</v>
       </c>
       <c r="L10">
-        <v>0.12</v>
+        <v>3.65</v>
       </c>
       <c r="M10">
-        <v>-0.17</v>
+        <v>0.48</v>
       </c>
       <c r="N10">
-        <v>0.29</v>
+        <v>3.17</v>
       </c>
       <c r="O10">
-        <v>0.29</v>
+        <v>3.17</v>
       </c>
       <c r="P10">
         <v>15.22</v>
       </c>
       <c r="Q10">
-        <v>0.09</v>
+        <v>1.04</v>
       </c>
       <c r="R10">
-        <v>0.09</v>
+        <v>1.04</v>
       </c>
       <c r="S10">
-        <v>0.09</v>
+        <v>1.04</v>
       </c>
       <c r="T10">
-        <v>0.09</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>11.07</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>11.07</v>
+        <v>10.16</v>
       </c>
       <c r="D11">
-        <v>6.51</v>
+        <v>6.37</v>
       </c>
       <c r="E11">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>3.19</v>
+        <v>3.33</v>
       </c>
       <c r="G11">
-        <v>-0.23</v>
+        <v>-1.43</v>
       </c>
       <c r="H11">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="I11">
-        <v>0.78</v>
+        <v>0.51</v>
       </c>
       <c r="J11">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K11">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="L11">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="M11">
-        <v>-0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="N11">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="O11">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="P11">
         <v>15.22</v>
       </c>
       <c r="Q11">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="R11">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="S11">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="T11">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>12.45</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>12.45</v>
+        <v>11.07</v>
       </c>
       <c r="D12">
-        <v>5.54</v>
+        <v>6.51</v>
       </c>
       <c r="E12">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="F12">
-        <v>4.98</v>
+        <v>3.19</v>
       </c>
       <c r="G12">
-        <v>0.18</v>
+        <v>-0.23</v>
       </c>
       <c r="H12">
-        <v>0.73</v>
+        <v>1.01</v>
       </c>
       <c r="I12">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="J12">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="K12">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="L12">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="M12">
-        <v>0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="N12">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="O12">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="P12">
         <v>15.22</v>
       </c>
       <c r="Q12">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="R12">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="S12">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="T12">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>18.13</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
       </c>
       <c r="C13">
-        <v>18.13</v>
+        <v>12.45</v>
       </c>
       <c r="D13">
-        <v>7.35</v>
+        <v>5.54</v>
       </c>
       <c r="E13">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="F13">
-        <v>5.31</v>
+        <v>4.98</v>
       </c>
       <c r="G13">
-        <v>3.7</v>
+        <v>0.18</v>
       </c>
       <c r="H13">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="I13">
-        <v>4.31</v>
+        <v>0.91</v>
       </c>
       <c r="J13">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="K13">
-        <v>3.79</v>
+        <v>0.43</v>
       </c>
       <c r="L13">
-        <v>3.79</v>
+        <v>0.43</v>
       </c>
       <c r="M13">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N13">
-        <v>3.19</v>
+        <v>0.36</v>
       </c>
       <c r="O13">
-        <v>3.19</v>
+        <v>0.36</v>
       </c>
       <c r="P13">
         <v>15.22</v>
       </c>
       <c r="Q13">
-        <v>1.05</v>
+        <v>0.12</v>
       </c>
       <c r="R13">
-        <v>1.02</v>
+        <v>0.12</v>
       </c>
       <c r="S13">
-        <v>1.05</v>
+        <v>0.12</v>
       </c>
       <c r="T13">
-        <v>1.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>21.1</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>21.1</v>
+        <v>18.13</v>
       </c>
       <c r="D14">
-        <v>7.58</v>
+        <v>7.35</v>
       </c>
       <c r="E14">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="F14">
-        <v>5.74</v>
+        <v>5.31</v>
       </c>
       <c r="G14">
-        <v>6.16</v>
+        <v>3.7</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="I14">
-        <v>6.57</v>
+        <v>4.31</v>
       </c>
       <c r="J14">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="K14">
-        <v>6.07</v>
+        <v>3.79</v>
       </c>
       <c r="L14">
-        <v>6.07</v>
+        <v>3.79</v>
       </c>
       <c r="M14">
-        <v>1.01</v>
+        <v>0.6</v>
       </c>
       <c r="N14">
-        <v>5.07</v>
+        <v>3.19</v>
       </c>
       <c r="O14">
-        <v>5.07</v>
+        <v>3.19</v>
       </c>
       <c r="P14">
         <v>15.22</v>
       </c>
       <c r="Q14">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="R14">
-        <v>1.62</v>
+        <v>1.02</v>
       </c>
       <c r="S14">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="T14">
-        <v>1.62</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>20.37</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>20.37</v>
+        <v>21.1</v>
       </c>
       <c r="D15">
-        <v>7.31</v>
+        <v>7.58</v>
       </c>
       <c r="E15">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="F15">
-        <v>5.15</v>
+        <v>5.74</v>
       </c>
       <c r="G15">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="H15">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
-        <v>6.99</v>
+        <v>6.57</v>
       </c>
       <c r="J15">
         <v>0.49</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>6.07</v>
       </c>
       <c r="L15">
-        <v>6.5</v>
+        <v>6.07</v>
       </c>
       <c r="M15">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N15">
-        <v>5.39</v>
+        <v>5.07</v>
       </c>
       <c r="O15">
-        <v>5.39</v>
+        <v>5.07</v>
       </c>
       <c r="P15">
         <v>15.22</v>
       </c>
       <c r="Q15">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="R15">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="S15">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="T15">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>17.07</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>17.07</v>
+        <v>20.37</v>
       </c>
       <c r="D16">
-        <v>6.53</v>
+        <v>7.31</v>
       </c>
       <c r="E16">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="F16">
-        <v>4.37</v>
+        <v>5.15</v>
       </c>
       <c r="G16">
-        <v>4.63</v>
+        <v>6.07</v>
       </c>
       <c r="H16">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
       <c r="I16">
-        <v>5.28</v>
+        <v>6.99</v>
       </c>
       <c r="J16">
         <v>0.49</v>
       </c>
       <c r="K16">
-        <v>4.79</v>
+        <v>6.5</v>
       </c>
       <c r="L16">
-        <v>4.79</v>
+        <v>6.5</v>
       </c>
       <c r="M16">
-        <v>-0.27</v>
+        <v>1.11</v>
       </c>
       <c r="N16">
-        <v>5.06</v>
+        <v>5.39</v>
       </c>
       <c r="O16">
-        <v>5.06</v>
+        <v>5.39</v>
       </c>
       <c r="P16">
-        <v>15.3</v>
+        <v>15.22</v>
       </c>
       <c r="Q16">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="R16">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S16">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="T16">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <v>28.19</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
       </c>
       <c r="C17">
-        <v>28.19</v>
+        <v>17.07</v>
       </c>
       <c r="D17">
-        <v>9.16</v>
+        <v>6.53</v>
       </c>
       <c r="E17">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="F17">
-        <v>8.02</v>
+        <v>4.37</v>
       </c>
       <c r="G17">
-        <v>8.949999999999999</v>
+        <v>4.63</v>
       </c>
       <c r="H17">
-        <v>1.47</v>
+        <v>0.65</v>
       </c>
       <c r="I17">
-        <v>10.42</v>
+        <v>5.28</v>
       </c>
       <c r="J17">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="K17">
-        <v>10.1</v>
+        <v>4.79</v>
       </c>
       <c r="L17">
-        <v>10.1</v>
+        <v>4.79</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>-0.27</v>
       </c>
       <c r="N17">
-        <v>8.1</v>
+        <v>5.06</v>
       </c>
       <c r="O17">
-        <v>8.1</v>
+        <v>5.06</v>
       </c>
       <c r="P17">
-        <v>15.33</v>
+        <v>15.3</v>
       </c>
       <c r="Q17">
-        <v>2.64</v>
+        <v>1.66</v>
       </c>
       <c r="R17">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="S17">
-        <v>2.64</v>
+        <v>1.66</v>
       </c>
       <c r="T17">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>29.3</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
       </c>
       <c r="C18">
-        <v>29.3</v>
+        <v>28.19</v>
       </c>
       <c r="D18">
-        <v>11.78</v>
+        <v>9.16</v>
       </c>
       <c r="E18">
+        <v>2.06</v>
+      </c>
+      <c r="F18">
+        <v>8.02</v>
+      </c>
+      <c r="G18">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.47</v>
+      </c>
+      <c r="I18">
+        <v>10.42</v>
+      </c>
+      <c r="J18">
+        <v>0.32</v>
+      </c>
+      <c r="K18">
+        <v>10.1</v>
+      </c>
+      <c r="L18">
+        <v>10.1</v>
+      </c>
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>6.09</v>
-      </c>
-      <c r="G18">
-        <v>9.44</v>
-      </c>
-      <c r="H18">
-        <v>1.22</v>
-      </c>
-      <c r="I18">
-        <v>10.66</v>
-      </c>
-      <c r="J18">
-        <v>0.43</v>
-      </c>
-      <c r="K18">
-        <v>10.23</v>
-      </c>
-      <c r="L18">
-        <v>10.23</v>
-      </c>
-      <c r="M18">
-        <v>1.91</v>
-      </c>
       <c r="N18">
-        <v>8.31</v>
+        <v>8.1</v>
       </c>
       <c r="O18">
-        <v>8.31</v>
+        <v>8.1</v>
       </c>
       <c r="P18">
-        <v>15.34</v>
+        <v>15.33</v>
       </c>
       <c r="Q18">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="R18">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="S18">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="T18">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>30.33</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>30.33</v>
+        <v>29.3</v>
       </c>
       <c r="D19">
-        <v>12.97</v>
+        <v>11.78</v>
       </c>
       <c r="E19">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>7.08</v>
+        <v>6.09</v>
       </c>
       <c r="G19">
-        <v>9.029999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="H19">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="I19">
-        <v>10.5</v>
+        <v>10.66</v>
       </c>
       <c r="J19">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="K19">
-        <v>10.08</v>
+        <v>10.23</v>
       </c>
       <c r="L19">
-        <v>10.08</v>
+        <v>10.23</v>
       </c>
       <c r="M19">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="N19">
-        <v>8.529999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="O19">
-        <v>8.529999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="P19">
-        <v>15.42</v>
+        <v>15.34</v>
       </c>
       <c r="Q19">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="R19">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="S19">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="T19">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>31.06</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
       </c>
       <c r="C20">
-        <v>31.06</v>
+        <v>30.33</v>
       </c>
       <c r="D20">
-        <v>13.81</v>
+        <v>12.97</v>
       </c>
       <c r="E20">
         <v>1.25</v>
       </c>
       <c r="F20">
-        <v>7.07</v>
+        <v>7.08</v>
       </c>
       <c r="G20">
-        <v>8.94</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H20">
-        <v>0.31</v>
+        <v>1.47</v>
       </c>
       <c r="I20">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="K20">
-        <v>8.25</v>
+        <v>10.08</v>
       </c>
       <c r="L20">
-        <v>8.25</v>
+        <v>10.08</v>
       </c>
       <c r="M20">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="N20">
-        <v>6.06</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="O20">
-        <v>6.06</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="P20">
-        <v>15.47</v>
+        <v>15.42</v>
       </c>
       <c r="Q20">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="R20">
-        <v>1.89</v>
+        <v>2.73</v>
       </c>
       <c r="S20">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="T20">
-        <v>1.89</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>22.32</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>22.32</v>
+        <v>31.06</v>
       </c>
       <c r="D21">
-        <v>13.31</v>
+        <v>13.81</v>
       </c>
       <c r="E21">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="F21">
-        <v>4.18</v>
+        <v>7.07</v>
       </c>
       <c r="G21">
-        <v>3.14</v>
+        <v>8.94</v>
       </c>
       <c r="H21">
-        <v>1.52</v>
+        <v>0.31</v>
       </c>
       <c r="I21">
-        <v>4.67</v>
+        <v>9.25</v>
       </c>
       <c r="J21">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>4.02</v>
+        <v>8.25</v>
       </c>
       <c r="L21">
-        <v>4.02</v>
+        <v>8.25</v>
       </c>
       <c r="M21">
-        <v>0.57</v>
+        <v>2.19</v>
       </c>
       <c r="N21">
-        <v>3.45</v>
+        <v>6.06</v>
       </c>
       <c r="O21">
-        <v>3.45</v>
+        <v>6.06</v>
       </c>
       <c r="P21">
         <v>15.47</v>
       </c>
       <c r="Q21">
-        <v>1.12</v>
+        <v>1.97</v>
       </c>
       <c r="R21">
-        <v>1.07</v>
+        <v>1.89</v>
       </c>
       <c r="S21">
-        <v>1.12</v>
+        <v>1.97</v>
       </c>
       <c r="T21">
-        <v>1.07</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>25.5</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
       </c>
       <c r="C22">
-        <v>25.5</v>
+        <v>22.32</v>
       </c>
       <c r="D22">
-        <v>16.71</v>
+        <v>13.31</v>
       </c>
       <c r="E22">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="F22">
-        <v>4.47</v>
+        <v>4.18</v>
       </c>
       <c r="G22">
-        <v>2.38</v>
+        <v>3.14</v>
       </c>
       <c r="H22">
+        <v>1.52</v>
+      </c>
+      <c r="I22">
+        <v>4.67</v>
+      </c>
+      <c r="J22">
+        <v>0.65</v>
+      </c>
+      <c r="K22">
+        <v>4.02</v>
+      </c>
+      <c r="L22">
+        <v>4.02</v>
+      </c>
+      <c r="M22">
+        <v>0.57</v>
+      </c>
+      <c r="N22">
+        <v>3.45</v>
+      </c>
+      <c r="O22">
+        <v>3.45</v>
+      </c>
+      <c r="P22">
+        <v>15.47</v>
+      </c>
+      <c r="Q22">
         <v>1.12</v>
       </c>
-      <c r="I22">
-        <v>3.49</v>
-      </c>
-      <c r="J22">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="K22">
-        <v>2.94</v>
-      </c>
-      <c r="L22">
-        <v>2.94</v>
-      </c>
-      <c r="M22">
-        <v>0.58</v>
-      </c>
-      <c r="N22">
-        <v>2.36</v>
-      </c>
-      <c r="O22">
-        <v>2.36</v>
-      </c>
-      <c r="P22">
-        <v>15.49</v>
-      </c>
-      <c r="Q22">
-        <v>0.76</v>
-      </c>
       <c r="R22">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
       <c r="S22">
-        <v>0.76</v>
+        <v>1.12</v>
       </c>
       <c r="T22">
-        <v>0.73</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>30.51</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>30.51</v>
+        <v>25.5</v>
       </c>
       <c r="D23">
-        <v>17.12</v>
+        <v>16.71</v>
       </c>
       <c r="E23">
-        <v>3.92</v>
+        <v>1.95</v>
       </c>
       <c r="F23">
-        <v>6.21</v>
+        <v>4.47</v>
       </c>
       <c r="G23">
-        <v>3.27</v>
+        <v>2.38</v>
       </c>
       <c r="H23">
-        <v>0.55</v>
+        <v>1.12</v>
       </c>
       <c r="I23">
-        <v>3.82</v>
+        <v>3.49</v>
       </c>
       <c r="J23">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K23">
-        <v>3.42</v>
+        <v>2.94</v>
       </c>
       <c r="L23">
-        <v>3.42</v>
+        <v>2.94</v>
       </c>
       <c r="M23">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="N23">
-        <v>3.02</v>
+        <v>2.36</v>
       </c>
       <c r="O23">
-        <v>3.02</v>
+        <v>2.36</v>
       </c>
       <c r="P23">
-        <v>15.54</v>
+        <v>15.49</v>
       </c>
       <c r="Q23">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="R23">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="S23">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="T23">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>40.46</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>40.46</v>
+        <v>30.51</v>
       </c>
       <c r="D24">
-        <v>16.07</v>
+        <v>17.12</v>
       </c>
       <c r="E24">
-        <v>2.24</v>
+        <v>3.92</v>
       </c>
       <c r="F24">
-        <v>17</v>
+        <v>6.21</v>
       </c>
       <c r="G24">
-        <v>5.15</v>
+        <v>3.27</v>
       </c>
       <c r="H24">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="I24">
-        <v>5.84</v>
+        <v>3.82</v>
       </c>
       <c r="J24">
-        <v>0.96</v>
+        <v>0.4</v>
       </c>
       <c r="K24">
-        <v>4.88</v>
+        <v>3.42</v>
       </c>
       <c r="L24">
-        <v>4.88</v>
+        <v>3.42</v>
       </c>
       <c r="M24">
-        <v>1.41</v>
+        <v>0.4</v>
       </c>
       <c r="N24">
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="O24">
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="P24">
-        <v>15.56</v>
+        <v>15.54</v>
       </c>
       <c r="Q24">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="R24">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S24">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="T24">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>37.01</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>37.01</v>
+        <v>40.46</v>
       </c>
       <c r="D25">
-        <v>19.25</v>
+        <v>16.07</v>
       </c>
       <c r="E25">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="F25">
-        <v>7.69</v>
+        <v>17</v>
       </c>
       <c r="G25">
-        <v>7.02</v>
+        <v>5.15</v>
       </c>
       <c r="H25">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I25">
-        <v>7.6</v>
+        <v>5.84</v>
       </c>
       <c r="J25">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="K25">
-        <v>6.81</v>
+        <v>4.88</v>
       </c>
       <c r="L25">
-        <v>6.81</v>
+        <v>4.88</v>
       </c>
       <c r="M25">
-        <v>0.46</v>
+        <v>1.41</v>
       </c>
       <c r="N25">
-        <v>6.35</v>
+        <v>3.47</v>
       </c>
       <c r="O25">
-        <v>6.35</v>
+        <v>3.47</v>
       </c>
       <c r="P25">
         <v>15.56</v>
       </c>
       <c r="Q25">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="S25">
-        <v>2.04</v>
+        <v>1.12</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>27.64</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
       </c>
       <c r="C26">
-        <v>27.64</v>
+        <v>37.01</v>
       </c>
       <c r="D26">
-        <v>13.95</v>
+        <v>19.25</v>
       </c>
       <c r="E26">
         <v>3.05</v>
       </c>
       <c r="F26">
-        <v>8.539999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="G26">
-        <v>2.1</v>
+        <v>7.02</v>
       </c>
       <c r="H26">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="I26">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="J26">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="K26">
-        <v>2.54</v>
+        <v>6.81</v>
       </c>
       <c r="L26">
-        <v>2.54</v>
+        <v>6.81</v>
       </c>
       <c r="M26">
-        <v>-0.8</v>
+        <v>0.46</v>
       </c>
       <c r="N26">
-        <v>3.34</v>
+        <v>6.35</v>
       </c>
       <c r="O26">
-        <v>3.34</v>
+        <v>6.35</v>
       </c>
       <c r="P26">
         <v>15.56</v>
       </c>
       <c r="Q26">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="R26">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="T26">
-        <v>1.06</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>28.03</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
       </c>
       <c r="C27">
-        <v>28.03</v>
+        <v>27.64</v>
       </c>
       <c r="D27">
-        <v>18.14</v>
+        <v>13.95</v>
       </c>
       <c r="E27">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="F27">
-        <v>6.42</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G27">
-        <v>0.5600000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H27">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="I27">
-        <v>1.46</v>
+        <v>3.25</v>
       </c>
       <c r="J27">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="K27">
-        <v>0.68</v>
+        <v>2.54</v>
       </c>
       <c r="L27">
-        <v>0.68</v>
+        <v>2.54</v>
       </c>
       <c r="M27">
-        <v>-1.28</v>
+        <v>-0.8</v>
       </c>
       <c r="N27">
-        <v>1.95</v>
+        <v>3.34</v>
       </c>
       <c r="O27">
-        <v>1.95</v>
+        <v>3.34</v>
       </c>
       <c r="P27">
-        <v>15.57</v>
+        <v>15.56</v>
       </c>
       <c r="Q27">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="R27">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
       <c r="S27">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="T27">
-        <v>0.61</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>19.1</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
       </c>
       <c r="C28">
-        <v>19.1</v>
+        <v>28.03</v>
       </c>
       <c r="D28">
-        <v>15.94</v>
+        <v>18.14</v>
       </c>
       <c r="E28">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="F28">
-        <v>5.3</v>
+        <v>6.42</v>
       </c>
       <c r="G28">
-        <v>-8.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H28">
-        <v>2.41</v>
+        <v>0.91</v>
       </c>
       <c r="I28">
-        <v>-5.81</v>
+        <v>1.46</v>
       </c>
       <c r="J28">
-        <v>0.22</v>
+        <v>0.79</v>
       </c>
       <c r="K28">
-        <v>-6.03</v>
+        <v>0.68</v>
       </c>
       <c r="L28">
-        <v>-6.03</v>
+        <v>0.68</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>-1.28</v>
       </c>
       <c r="N28">
-        <v>-6.11</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>-6.11</v>
+        <v>1.95</v>
       </c>
       <c r="P28">
         <v>15.57</v>
       </c>
       <c r="Q28">
-        <v>-1.96</v>
+        <v>0.63</v>
       </c>
       <c r="R28">
-        <v>-1.95</v>
+        <v>0.61</v>
       </c>
       <c r="S28">
-        <v>-1.96</v>
+        <v>0.63</v>
       </c>
       <c r="T28">
-        <v>-1.95</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <v>3.61</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>3.61</v>
+        <v>19.1</v>
       </c>
       <c r="D29">
-        <v>14.52</v>
+        <v>15.94</v>
       </c>
       <c r="E29">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="F29">
-        <v>11.56</v>
+        <v>5.3</v>
       </c>
       <c r="G29">
-        <v>-26.53</v>
+        <v>-8.23</v>
       </c>
       <c r="H29">
-        <v>0.97</v>
+        <v>2.41</v>
       </c>
       <c r="I29">
-        <v>-25.56</v>
+        <v>-5.81</v>
       </c>
       <c r="J29">
-        <v>0.5600000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K29">
-        <v>-26.12</v>
+        <v>-6.03</v>
       </c>
       <c r="L29">
-        <v>-26.12</v>
+        <v>-6.03</v>
       </c>
       <c r="M29">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>-26.48</v>
+        <v>-6.11</v>
       </c>
       <c r="O29">
-        <v>-26.48</v>
+        <v>-6.11</v>
       </c>
       <c r="P29">
         <v>15.57</v>
       </c>
       <c r="Q29">
-        <v>-8.5</v>
+        <v>-1.96</v>
       </c>
       <c r="R29">
-        <v>-8.460000000000001</v>
+        <v>-1.95</v>
       </c>
       <c r="S29">
-        <v>-8.5</v>
+        <v>-1.96</v>
       </c>
       <c r="T29">
-        <v>-8.460000000000001</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30">
-        <v>21.54</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
       </c>
       <c r="C30">
-        <v>21.54</v>
+        <v>3.61</v>
       </c>
       <c r="D30">
-        <v>8.58</v>
+        <v>14.52</v>
       </c>
       <c r="E30">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="F30">
-        <v>1.83</v>
+        <v>11.56</v>
       </c>
       <c r="G30">
-        <v>6.26</v>
+        <v>-26.53</v>
       </c>
       <c r="H30">
-        <v>0.25</v>
+        <v>0.97</v>
       </c>
       <c r="I30">
-        <v>6.5</v>
+        <v>-25.56</v>
       </c>
       <c r="J30">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K30">
-        <v>6.04</v>
+        <v>-26.12</v>
       </c>
       <c r="L30">
-        <v>6.04</v>
+        <v>-26.12</v>
       </c>
       <c r="M30">
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="N30">
-        <v>6.04</v>
+        <v>-26.48</v>
       </c>
       <c r="O30">
-        <v>6.04</v>
+        <v>-26.48</v>
       </c>
       <c r="P30">
         <v>15.57</v>
       </c>
       <c r="Q30">
-        <v>1.94</v>
+        <v>-8.5</v>
       </c>
       <c r="R30">
-        <v>1.93</v>
+        <v>-8.460000000000001</v>
       </c>
       <c r="S30">
-        <v>1.94</v>
+        <v>-8.5</v>
       </c>
       <c r="T30">
-        <v>1.93</v>
+        <v>-8.460000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
-        <v>23.19</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>23.19</v>
+        <v>21.54</v>
       </c>
       <c r="D31">
-        <v>11.54</v>
+        <v>8.58</v>
       </c>
       <c r="E31">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="G31">
-        <v>4.18</v>
+        <v>6.26</v>
       </c>
       <c r="H31">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="I31">
-        <v>4.62</v>
+        <v>6.5</v>
       </c>
       <c r="J31">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="K31">
-        <v>4.07</v>
+        <v>6.04</v>
       </c>
       <c r="L31">
-        <v>4.07</v>
+        <v>6.04</v>
       </c>
       <c r="M31">
-        <v>-0.08</v>
+        <v>0.01</v>
       </c>
       <c r="N31">
-        <v>4.15</v>
+        <v>6.04</v>
       </c>
       <c r="O31">
-        <v>4.15</v>
+        <v>6.04</v>
       </c>
       <c r="P31">
-        <v>15.61</v>
+        <v>15.57</v>
       </c>
       <c r="Q31">
-        <v>1.33</v>
+        <v>1.94</v>
       </c>
       <c r="R31">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="S31">
-        <v>1.33</v>
+        <v>1.94</v>
       </c>
       <c r="T31">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>31.22</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>31.22</v>
+        <v>23.19</v>
       </c>
       <c r="D32">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="E32">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="F32">
-        <v>3.44</v>
+        <v>2.5</v>
       </c>
       <c r="G32">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="H32">
-        <v>1.05</v>
+        <v>0.44</v>
       </c>
       <c r="I32">
-        <v>5.25</v>
+        <v>4.62</v>
       </c>
       <c r="J32">
-        <v>1.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K32">
-        <v>3.87</v>
+        <v>4.07</v>
       </c>
       <c r="L32">
-        <v>-23.98</v>
+        <v>4.07</v>
       </c>
       <c r="M32">
-        <v>-2.94</v>
+        <v>-0.08</v>
       </c>
       <c r="N32">
-        <v>-21.04</v>
+        <v>4.15</v>
       </c>
       <c r="O32">
-        <v>-21.04</v>
+        <v>4.15</v>
       </c>
       <c r="P32">
         <v>15.61</v>
       </c>
       <c r="Q32">
-        <v>-6.75</v>
+        <v>1.33</v>
       </c>
       <c r="R32">
-        <v>-6.54</v>
+        <v>1.33</v>
       </c>
       <c r="S32">
-        <v>-6.75</v>
+        <v>1.33</v>
       </c>
       <c r="T32">
-        <v>-6.54</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33">
-        <v>13.67</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
       </c>
       <c r="C33">
-        <v>13.67</v>
+        <v>31.22</v>
       </c>
       <c r="D33">
-        <v>12.16</v>
+        <v>11.44</v>
       </c>
       <c r="E33">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="F33">
-        <v>1.48</v>
+        <v>3.44</v>
       </c>
       <c r="G33">
-        <v>-7.05</v>
+        <v>4.21</v>
       </c>
       <c r="H33">
-        <v>0.73</v>
+        <v>1.05</v>
       </c>
       <c r="I33">
-        <v>-6.32</v>
+        <v>5.25</v>
       </c>
       <c r="J33">
-        <v>0.46</v>
+        <v>1.38</v>
       </c>
       <c r="K33">
-        <v>-6.78</v>
+        <v>3.87</v>
       </c>
       <c r="L33">
-        <v>-6.78</v>
+        <v>-23.98</v>
       </c>
       <c r="M33">
-        <v>-0.62</v>
+        <v>-2.94</v>
       </c>
       <c r="N33">
-        <v>-6.16</v>
+        <v>-21.04</v>
       </c>
       <c r="O33">
-        <v>-6.16</v>
+        <v>-21.04</v>
       </c>
       <c r="P33">
         <v>15.61</v>
       </c>
       <c r="Q33">
-        <v>-1.97</v>
+        <v>-6.75</v>
       </c>
       <c r="R33">
-        <v>-1.91</v>
+        <v>-6.54</v>
       </c>
       <c r="S33">
-        <v>-1.97</v>
+        <v>-6.75</v>
       </c>
       <c r="T33">
-        <v>-1.91</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34">
-        <v>31.49</v>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
       </c>
       <c r="C34">
-        <v>31.49</v>
+        <v>13.67</v>
       </c>
       <c r="D34">
-        <v>12.3</v>
+        <v>12.16</v>
       </c>
       <c r="E34">
         <v>2.55</v>
       </c>
       <c r="F34">
-        <v>10.48</v>
+        <v>1.48</v>
       </c>
       <c r="G34">
-        <v>6.16</v>
+        <v>-7.05</v>
       </c>
       <c r="H34">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="I34">
-        <v>7.11</v>
+        <v>-6.32</v>
       </c>
       <c r="J34">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="K34">
-        <v>6.36</v>
+        <v>-6.78</v>
       </c>
       <c r="L34">
-        <v>6.36</v>
+        <v>-6.78</v>
       </c>
       <c r="M34">
-        <v>-0.09</v>
+        <v>-0.62</v>
       </c>
       <c r="N34">
-        <v>6.45</v>
+        <v>-6.16</v>
       </c>
       <c r="O34">
-        <v>6.45</v>
+        <v>-6.16</v>
       </c>
       <c r="P34">
         <v>15.61</v>
       </c>
       <c r="Q34">
-        <v>2.06</v>
+        <v>-1.97</v>
       </c>
       <c r="R34">
-        <v>1.87</v>
+        <v>-1.91</v>
       </c>
       <c r="S34">
-        <v>2.06</v>
+        <v>-1.97</v>
       </c>
       <c r="T34">
-        <v>1.87</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
-        <v>39.03</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
       </c>
       <c r="C35">
-        <v>39.03</v>
+        <v>31.49</v>
       </c>
       <c r="D35">
-        <v>10.56</v>
+        <v>12.3</v>
       </c>
       <c r="E35">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="F35">
-        <v>2.57</v>
+        <v>10.48</v>
       </c>
       <c r="G35">
-        <v>11.46</v>
+        <v>6.16</v>
       </c>
       <c r="H35">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="I35">
-        <v>12.31</v>
+        <v>7.11</v>
       </c>
       <c r="J35">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="K35">
-        <v>11.37</v>
+        <v>6.36</v>
       </c>
       <c r="L35">
-        <v>11.37</v>
+        <v>6.36</v>
       </c>
       <c r="M35">
-        <v>2.35</v>
+        <v>-0.09</v>
       </c>
       <c r="N35">
-        <v>9.02</v>
+        <v>6.45</v>
       </c>
       <c r="O35">
-        <v>9.02</v>
+        <v>6.45</v>
       </c>
       <c r="P35">
         <v>15.61</v>
       </c>
       <c r="Q35">
-        <v>2.89</v>
+        <v>2.06</v>
       </c>
       <c r="R35">
-        <v>2.78</v>
+        <v>1.87</v>
       </c>
       <c r="S35">
-        <v>2.89</v>
+        <v>2.06</v>
       </c>
       <c r="T35">
-        <v>2.78</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
-        <v>35.44</v>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
       </c>
       <c r="C36">
-        <v>35.44</v>
+        <v>39.03</v>
       </c>
       <c r="D36">
-        <v>9.94</v>
+        <v>10.56</v>
       </c>
       <c r="E36">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="F36">
-        <v>4.55</v>
+        <v>2.57</v>
       </c>
       <c r="G36">
-        <v>7.13</v>
+        <v>11.46</v>
       </c>
       <c r="H36">
-        <v>1.89</v>
+        <v>0.85</v>
       </c>
       <c r="I36">
+        <v>12.31</v>
+      </c>
+      <c r="J36">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K36">
+        <v>11.37</v>
+      </c>
+      <c r="L36">
+        <v>11.37</v>
+      </c>
+      <c r="M36">
+        <v>2.35</v>
+      </c>
+      <c r="N36">
         <v>9.02</v>
       </c>
-      <c r="J36">
-        <v>0.14</v>
-      </c>
-      <c r="K36">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="L36">
-        <v>-91.51000000000001</v>
-      </c>
-      <c r="M36">
-        <v>2.17</v>
-      </c>
-      <c r="N36">
-        <v>-93.68000000000001</v>
-      </c>
       <c r="O36">
-        <v>-93.68000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="P36">
-        <v>15.68</v>
+        <v>15.61</v>
       </c>
       <c r="Q36">
-        <v>-29.98</v>
+        <v>2.89</v>
       </c>
       <c r="R36">
-        <v>-27.69</v>
+        <v>2.78</v>
       </c>
       <c r="S36">
-        <v>-29.98</v>
+        <v>2.89</v>
       </c>
       <c r="T36">
-        <v>-27.69</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <v>42.62</v>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
       </c>
       <c r="C37">
-        <v>42.62</v>
+        <v>35.44</v>
       </c>
       <c r="D37">
-        <v>12.79</v>
+        <v>9.94</v>
       </c>
       <c r="E37">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="F37">
-        <v>3.58</v>
+        <v>4.55</v>
       </c>
       <c r="G37">
-        <v>9.359999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="H37">
-        <v>1.41</v>
+        <v>1.89</v>
       </c>
       <c r="I37">
-        <v>10.77</v>
+        <v>9.02</v>
       </c>
       <c r="J37">
-        <v>0.5600000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="K37">
-        <v>10.21</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="L37">
-        <v>10.21</v>
+        <v>-91.51000000000001</v>
       </c>
       <c r="M37">
-        <v>2.46</v>
+        <v>2.17</v>
       </c>
       <c r="N37">
-        <v>7.75</v>
+        <v>-93.68000000000001</v>
       </c>
       <c r="O37">
-        <v>7.75</v>
+        <v>-93.68000000000001</v>
       </c>
       <c r="P37">
-        <v>15.74</v>
+        <v>15.68</v>
       </c>
       <c r="Q37">
-        <v>2.36</v>
+        <v>-29.98</v>
       </c>
       <c r="R37">
-        <v>2.26</v>
+        <v>-27.69</v>
       </c>
       <c r="S37">
-        <v>2.36</v>
+        <v>-29.98</v>
       </c>
       <c r="T37">
-        <v>2.26</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38">
-        <v>37.13</v>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>37.13</v>
+        <v>42.62</v>
       </c>
       <c r="D38">
-        <v>12.9</v>
+        <v>12.79</v>
       </c>
       <c r="E38">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="F38">
-        <v>13.33</v>
+        <v>3.58</v>
       </c>
       <c r="G38">
-        <v>7.89</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H38">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="I38">
-        <v>9.800000000000001</v>
+        <v>10.77</v>
       </c>
       <c r="J38">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K38">
-        <v>9.25</v>
+        <v>10.21</v>
       </c>
       <c r="L38">
-        <v>9.25</v>
+        <v>10.21</v>
       </c>
       <c r="M38">
-        <v>0.2</v>
+        <v>2.46</v>
       </c>
       <c r="N38">
-        <v>9.050000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="O38">
-        <v>9.050000000000001</v>
+        <v>7.75</v>
       </c>
       <c r="P38">
-        <v>18.43</v>
+        <v>15.74</v>
       </c>
       <c r="Q38">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="R38">
-        <v>2.55</v>
+        <v>2.26</v>
       </c>
       <c r="S38">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="T38">
-        <v>2.55</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39">
-        <v>54.07</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
       </c>
       <c r="C39">
-        <v>54.07</v>
+        <v>37.13</v>
       </c>
       <c r="D39">
-        <v>12.71</v>
+        <v>12.9</v>
       </c>
       <c r="E39">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="F39">
-        <v>22.2</v>
+        <v>13.33</v>
       </c>
       <c r="G39">
-        <v>15.92</v>
+        <v>7.89</v>
       </c>
       <c r="H39">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="I39">
-        <v>17.73</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J39">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="K39">
-        <v>17.38</v>
+        <v>9.25</v>
       </c>
       <c r="L39">
-        <v>17.38</v>
+        <v>9.25</v>
       </c>
       <c r="M39">
-        <v>3.76</v>
+        <v>0.2</v>
       </c>
       <c r="N39">
-        <v>13.62</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="O39">
-        <v>13.62</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="P39">
-        <v>18.46</v>
+        <v>18.43</v>
       </c>
       <c r="Q39">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="R39">
-        <v>3.71</v>
+        <v>2.55</v>
       </c>
       <c r="S39">
-        <v>3.89</v>
+        <v>2.66</v>
       </c>
       <c r="T39">
-        <v>3.71</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40">
-        <v>46.09</v>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
       </c>
       <c r="C40">
-        <v>46.09</v>
+        <v>54.07</v>
       </c>
       <c r="D40">
-        <v>14.72</v>
+        <v>12.71</v>
       </c>
       <c r="E40">
-        <v>4.9</v>
+        <v>3.24</v>
       </c>
       <c r="F40">
-        <v>14.87</v>
+        <v>22.2</v>
       </c>
       <c r="G40">
-        <v>11.59</v>
+        <v>15.92</v>
       </c>
       <c r="H40">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="I40">
-        <v>12.9</v>
+        <v>17.73</v>
       </c>
       <c r="J40">
-        <v>1.22</v>
+        <v>0.35</v>
       </c>
       <c r="K40">
-        <v>11.68</v>
+        <v>17.38</v>
       </c>
       <c r="L40">
-        <v>11.68</v>
+        <v>17.38</v>
       </c>
       <c r="M40">
-        <v>3.64</v>
+        <v>3.76</v>
       </c>
       <c r="N40">
-        <v>8.039999999999999</v>
+        <v>13.62</v>
       </c>
       <c r="O40">
-        <v>8.039999999999999</v>
+        <v>13.62</v>
       </c>
       <c r="P40">
-        <v>18.88</v>
+        <v>18.46</v>
       </c>
       <c r="Q40">
-        <v>2.3</v>
+        <v>3.89</v>
       </c>
       <c r="R40">
-        <v>2.24</v>
+        <v>3.71</v>
       </c>
       <c r="S40">
-        <v>2.3</v>
+        <v>3.89</v>
       </c>
       <c r="T40">
-        <v>2.24</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41">
-        <v>34.17</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
       </c>
       <c r="C41">
-        <v>34.17</v>
+        <v>46.09</v>
       </c>
       <c r="D41">
-        <v>11.51</v>
+        <v>14.72</v>
       </c>
       <c r="E41">
-        <v>5.29</v>
+        <v>4.9</v>
       </c>
       <c r="F41">
-        <v>4.44</v>
+        <v>14.87</v>
       </c>
       <c r="G41">
-        <v>0.31</v>
+        <v>11.59</v>
       </c>
       <c r="H41">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="I41">
-        <v>1.52</v>
+        <v>12.9</v>
       </c>
       <c r="J41">
-        <v>0.66</v>
+        <v>1.22</v>
       </c>
       <c r="K41">
-        <v>0.86</v>
+        <v>11.68</v>
       </c>
       <c r="L41">
-        <v>0.86</v>
+        <v>11.68</v>
       </c>
       <c r="M41">
-        <v>0.23</v>
+        <v>3.64</v>
       </c>
       <c r="N41">
-        <v>0.63</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="O41">
-        <v>0.63</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="P41">
-        <v>18.89</v>
+        <v>18.88</v>
       </c>
       <c r="Q41">
-        <v>0.17</v>
+        <v>2.3</v>
       </c>
       <c r="R41">
-        <v>0.17</v>
+        <v>2.24</v>
       </c>
       <c r="S41">
-        <v>0.17</v>
+        <v>2.3</v>
       </c>
       <c r="T41">
-        <v>0.17</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42">
-        <v>32.85</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>32.85</v>
+        <v>34.17</v>
       </c>
       <c r="D42">
-        <v>10.96</v>
+        <v>11.51</v>
       </c>
       <c r="E42">
-        <v>4.84</v>
+        <v>5.29</v>
       </c>
       <c r="F42">
-        <v>4.53</v>
+        <v>4.44</v>
       </c>
       <c r="G42">
-        <v>2.69</v>
+        <v>0.31</v>
       </c>
       <c r="H42">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="I42">
-        <v>3.8</v>
+        <v>1.52</v>
       </c>
       <c r="J42">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="K42">
-        <v>3.07</v>
+        <v>0.86</v>
       </c>
       <c r="L42">
-        <v>3.07</v>
+        <v>0.86</v>
       </c>
       <c r="M42">
-        <v>0.59</v>
+        <v>0.23</v>
       </c>
       <c r="N42">
-        <v>2.48</v>
+        <v>0.63</v>
       </c>
       <c r="O42">
-        <v>2.48</v>
+        <v>0.63</v>
       </c>
       <c r="P42">
-        <v>18.9</v>
+        <v>18.89</v>
       </c>
       <c r="Q42">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="R42">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="S42">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
       <c r="T42">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43">
-        <v>57.71</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43">
-        <v>57.71</v>
+        <v>32.85</v>
       </c>
       <c r="D43">
-        <v>11.6</v>
+        <v>10.96</v>
       </c>
       <c r="E43">
-        <v>4.9</v>
+        <v>4.84</v>
       </c>
       <c r="F43">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="G43">
-        <v>24.52</v>
+        <v>2.69</v>
       </c>
       <c r="H43">
-        <v>2.54</v>
+        <v>1.11</v>
       </c>
       <c r="I43">
-        <v>27.06</v>
+        <v>3.8</v>
       </c>
       <c r="J43">
-        <v>1.08</v>
+        <v>0.73</v>
       </c>
       <c r="K43">
-        <v>25.98</v>
+        <v>3.07</v>
       </c>
       <c r="L43">
-        <v>25.98</v>
+        <v>3.07</v>
       </c>
       <c r="M43">
-        <v>5.44</v>
+        <v>0.59</v>
       </c>
       <c r="N43">
-        <v>20.55</v>
+        <v>2.48</v>
       </c>
       <c r="O43">
-        <v>20.55</v>
+        <v>2.48</v>
       </c>
       <c r="P43">
-        <v>18.92</v>
+        <v>18.9</v>
       </c>
       <c r="Q43">
-        <v>5.44</v>
+        <v>0.37</v>
       </c>
       <c r="R43">
-        <v>5.44</v>
+        <v>0.37</v>
       </c>
       <c r="S43">
-        <v>5.44</v>
+        <v>0.37</v>
       </c>
       <c r="T43">
-        <v>5.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
-        <v>69.73</v>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44">
-        <v>69.73</v>
+        <v>57.71</v>
       </c>
       <c r="D44">
-        <v>10.83</v>
+        <v>11.6</v>
       </c>
       <c r="E44">
-        <v>5.17</v>
+        <v>4.9</v>
       </c>
       <c r="F44">
-        <v>4.43</v>
+        <v>4.55</v>
       </c>
       <c r="G44">
-        <v>31.69</v>
+        <v>24.52</v>
       </c>
       <c r="H44">
-        <v>0.38</v>
+        <v>2.54</v>
       </c>
       <c r="I44">
-        <v>32.07</v>
+        <v>27.06</v>
       </c>
       <c r="J44">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="K44">
-        <v>30.64</v>
+        <v>25.98</v>
       </c>
       <c r="L44">
-        <v>30.64</v>
+        <v>25.98</v>
       </c>
       <c r="M44">
-        <v>9.109999999999999</v>
+        <v>5.44</v>
       </c>
       <c r="N44">
-        <v>21.52</v>
+        <v>20.55</v>
       </c>
       <c r="O44">
-        <v>21.52</v>
+        <v>20.55</v>
       </c>
       <c r="P44">
-        <v>19.77</v>
+        <v>18.92</v>
       </c>
       <c r="Q44">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="R44">
         <v>5.44</v>
       </c>
       <c r="S44">
-        <v>5.48</v>
+        <v>5.44</v>
       </c>
       <c r="T44">
         <v>5.44</v>
@@ -3302,125 +3440,187 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45">
-        <v>55.26</v>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
       </c>
       <c r="C45">
-        <v>55.26</v>
+        <v>69.73</v>
       </c>
       <c r="D45">
-        <v>13.42</v>
+        <v>10.83</v>
       </c>
       <c r="E45">
-        <v>5.71</v>
+        <v>5.17</v>
       </c>
       <c r="F45">
-        <v>21.21</v>
+        <v>4.43</v>
       </c>
       <c r="G45">
-        <v>14.91</v>
+        <v>31.69</v>
       </c>
       <c r="H45">
-        <v>1.41</v>
+        <v>0.38</v>
       </c>
       <c r="I45">
-        <v>16.32</v>
+        <v>32.07</v>
       </c>
       <c r="J45">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="K45">
-        <v>15.08</v>
+        <v>30.64</v>
       </c>
       <c r="L45">
-        <v>15.08</v>
+        <v>30.64</v>
       </c>
       <c r="M45">
-        <v>3.48</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N45">
-        <v>11.6</v>
+        <v>21.52</v>
       </c>
       <c r="O45">
-        <v>11.6</v>
+        <v>21.52</v>
       </c>
       <c r="P45">
-        <v>19.8</v>
+        <v>19.77</v>
       </c>
       <c r="Q45">
-        <v>2.93</v>
+        <v>5.48</v>
       </c>
       <c r="R45">
-        <v>2.9</v>
+        <v>5.44</v>
       </c>
       <c r="S45">
-        <v>2.93</v>
+        <v>5.48</v>
       </c>
       <c r="T45">
-        <v>2.9</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
+        <v>55.26</v>
+      </c>
+      <c r="D46">
+        <v>13.42</v>
+      </c>
+      <c r="E46">
+        <v>5.71</v>
+      </c>
+      <c r="F46">
+        <v>21.21</v>
+      </c>
+      <c r="G46">
+        <v>14.91</v>
+      </c>
+      <c r="H46">
+        <v>1.41</v>
+      </c>
+      <c r="I46">
+        <v>16.32</v>
+      </c>
+      <c r="J46">
+        <v>1.24</v>
+      </c>
+      <c r="K46">
+        <v>15.08</v>
+      </c>
+      <c r="L46">
+        <v>15.08</v>
+      </c>
+      <c r="M46">
+        <v>3.48</v>
+      </c>
+      <c r="N46">
+        <v>11.6</v>
+      </c>
+      <c r="O46">
+        <v>11.6</v>
+      </c>
+      <c r="P46">
+        <v>19.8</v>
+      </c>
+      <c r="Q46">
+        <v>2.93</v>
+      </c>
+      <c r="R46">
+        <v>2.9</v>
+      </c>
+      <c r="S46">
+        <v>2.93</v>
+      </c>
+      <c r="T46">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47">
         <v>70.92</v>
       </c>
-      <c r="C46">
-        <v>70.92</v>
-      </c>
-      <c r="D46">
+      <c r="D47">
         <v>14.1</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>6.07</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>27.54</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>23.21</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="I47">
         <v>24.21</v>
       </c>
-      <c r="J46">
+      <c r="J47">
         <v>1.88</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <v>22.33</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <v>22.33</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <v>5.15</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>17.18</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>17.18</v>
       </c>
-      <c r="P46">
+      <c r="P47">
         <v>19.82</v>
       </c>
-      <c r="Q46">
+      <c r="Q47">
         <v>4.34</v>
       </c>
-      <c r="R46">
+      <c r="R47">
         <v>4.29</v>
       </c>
-      <c r="S46">
+      <c r="S47">
         <v>4.34</v>
       </c>
-      <c r="T46">
+      <c r="T47">
         <v>4.29</v>
       </c>
     </row>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,37 +1,378 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Quarterly Results of Genesys International Corporation(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Sep '13</t>
+  </si>
+  <si>
+    <t>Dec '13</t>
+  </si>
+  <si>
+    <t>Mar '14</t>
+  </si>
+  <si>
+    <t>Jun '14</t>
+  </si>
+  <si>
+    <t>Sep '14</t>
+  </si>
+  <si>
+    <t>Dec '14</t>
+  </si>
+  <si>
+    <t>Mar '15</t>
+  </si>
+  <si>
+    <t>Jun '15</t>
+  </si>
+  <si>
+    <t>Sep '15</t>
+  </si>
+  <si>
+    <t>Dec '15</t>
+  </si>
+  <si>
+    <t>Mar '16</t>
+  </si>
+  <si>
+    <t>Jun '16</t>
+  </si>
+  <si>
+    <t>Sep '16</t>
+  </si>
+  <si>
+    <t>Dec '16</t>
+  </si>
+  <si>
+    <t>Mar '17</t>
+  </si>
+  <si>
+    <t>Jun '17</t>
+  </si>
+  <si>
+    <t>Sep '17</t>
+  </si>
+  <si>
+    <t>Dec '17</t>
+  </si>
+  <si>
+    <t>Mar '18</t>
+  </si>
+  <si>
+    <t>Jun '18</t>
+  </si>
+  <si>
+    <t>Sep '18</t>
+  </si>
+  <si>
+    <t>Dec '18</t>
+  </si>
+  <si>
+    <t>Mar '19</t>
+  </si>
+  <si>
+    <t>Jun '19</t>
+  </si>
+  <si>
+    <t>Sep '19</t>
+  </si>
+  <si>
+    <t>Dec '19</t>
+  </si>
+  <si>
+    <t>Mar '20</t>
+  </si>
+  <si>
+    <t>Jun '20</t>
+  </si>
+  <si>
+    <t>Sep '20</t>
+  </si>
+  <si>
+    <t>Dec '20</t>
+  </si>
+  <si>
+    <t>Mar '21</t>
+  </si>
+  <si>
+    <t>Jun '21</t>
+  </si>
+  <si>
+    <t>Sep '21</t>
+  </si>
+  <si>
+    <t>Dec '21</t>
+  </si>
+  <si>
+    <t>Mar '22</t>
+  </si>
+  <si>
+    <t>Jun '22</t>
+  </si>
+  <si>
+    <t>Sep '22</t>
+  </si>
+  <si>
+    <t>Dec '22</t>
+  </si>
+  <si>
+    <t>Mar '23</t>
+  </si>
+  <si>
+    <t>Jun '23</t>
+  </si>
+  <si>
+    <t>Sep '23</t>
+  </si>
+  <si>
+    <t>Dec '23</t>
+  </si>
+  <si>
+    <t>Mar '24</t>
+  </si>
+  <si>
+    <t>Jun '24</t>
+  </si>
+  <si>
+    <t>Sep '24</t>
+  </si>
+  <si>
+    <t>Net Sales/Income from operations</t>
+  </si>
+  <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>16.14</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>15.96</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>13.28</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>12.45</t>
+  </si>
+  <si>
+    <t>18.13</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>20.37</t>
+  </si>
+  <si>
+    <t>17.07</t>
+  </si>
+  <si>
+    <t>28.19</t>
+  </si>
+  <si>
+    <t>29.30</t>
+  </si>
+  <si>
+    <t>30.33</t>
+  </si>
+  <si>
+    <t>31.06</t>
+  </si>
+  <si>
+    <t>22.32</t>
+  </si>
+  <si>
+    <t>25.50</t>
+  </si>
+  <si>
+    <t>30.51</t>
+  </si>
+  <si>
+    <t>40.46</t>
+  </si>
+  <si>
+    <t>37.01</t>
+  </si>
+  <si>
+    <t>27.64</t>
+  </si>
+  <si>
+    <t>28.03</t>
+  </si>
+  <si>
+    <t>19.10</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>21.54</t>
+  </si>
+  <si>
+    <t>23.19</t>
+  </si>
+  <si>
+    <t>31.22</t>
+  </si>
+  <si>
+    <t>13.67</t>
+  </si>
+  <si>
+    <t>31.49</t>
+  </si>
+  <si>
+    <t>39.03</t>
+  </si>
+  <si>
+    <t>35.44</t>
+  </si>
+  <si>
+    <t>42.62</t>
+  </si>
+  <si>
+    <t>37.13</t>
+  </si>
+  <si>
+    <t>54.07</t>
+  </si>
+  <si>
+    <t>46.09</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>32.85</t>
+  </si>
+  <si>
+    <t>57.71</t>
+  </si>
+  <si>
+    <t>69.73</t>
+  </si>
+  <si>
+    <t>55.26</t>
+  </si>
+  <si>
+    <t>70.92</t>
+  </si>
+  <si>
+    <t>Total Income From Operations</t>
+  </si>
+  <si>
+    <t>Employees Cost</t>
+  </si>
+  <si>
+    <t>depreciat</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>P/L Before Int., Excpt. Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>P/L Before Tax</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>P/L After Tax from Ordinary Activities</t>
+  </si>
+  <si>
+    <t>Net Profit/(Loss) For the Period</t>
+  </si>
+  <si>
+    <t>Equity Share Capital</t>
+  </si>
+  <si>
+    <t>Basic EPS</t>
+  </si>
+  <si>
+    <t>Diluted EPS</t>
+  </si>
+  <si>
+    <t>Basic EPS.</t>
+  </si>
+  <si>
+    <t>Diluted EPS.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +387,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,3156 +703,2928 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Quarterly Results of Genesys International Corporation(in Rs. Cr.)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Net Sales/Income from operations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Total Income From Operations</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Employees Cost</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>depreciat</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Other Expenses</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>P/L Before Other Inc. , Int., Excpt. Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Other Income</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>P/L Before Int., Excpt. Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Interest</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>P/L Before Exceptional Items &amp; Tax</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P/L Before Tax</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>P/L After Tax from Ordinary Activities</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Net Profit/(Loss) For the Period</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Equity Share Capital</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Basic EPS</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Diluted EPS</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Basic EPS.</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Diluted EPS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>23.05</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
         <v>23.05</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9.32</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.89</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5.96</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>4.88</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1.74</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>6.62</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>6.12</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>6.12</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1.55</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>4.57</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>4.57</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>14.92</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>1.53</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>1.53</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>1.53</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>1.53</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16.14</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
         <v>16.14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7.52</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5.49</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.64</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.19</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.83</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.51</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.31</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.31</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-0.11</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>0.43</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>0.43</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>14.92</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>0.14</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>0.14</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>0.14</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>0.14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
         <v>5.75</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5.81</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1.48</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>4.58</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-6.13</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-0.4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-6.53</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>-6.87</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>-6.87</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>-1.33</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>-5.54</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>-5.57</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>14.92</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>-1.87</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>-1.87</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>-1.87</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>-1.87</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15.96</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
         <v>15.96</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>6.36</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5.76</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.73</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.59</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>2.33</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.42</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>1.91</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>1.91</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>0.16</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>1.74</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1.74</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>14.92</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>0.58</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>0.58</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>0.58</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>0.58</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15.53</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
         <v>15.53</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6.45</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2.06</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>4.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.62</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.53</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1.15</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.52</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.63</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.63</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.34</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>0.29</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>0.29</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>14.92</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>0.1</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>0.1</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>0.1</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14.70</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
         <v>14.7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.87</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2.14</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4.45</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.08</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.47</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1.56</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.48</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>1.08</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>1.08</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>-0.14</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1.21</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1.21</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>14.92</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>0.41</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>0.41</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>0.41</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>0.41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
         <v>14.07</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.48</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1.98</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3.89</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2.02</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.04</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.97</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.45</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>1.53</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>1.53</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>0.19</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>1.33</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1.33</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>15.22</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>0.44</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>0.44</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>0.44</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>0.44</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
         <v>13.28</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.68</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.84</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3.93</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.82</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2.2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>4.03</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.38</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>3.65</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>3.65</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.48</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>3.17</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>3.17</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>15.22</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>1.04</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1.04</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>1.04</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>1.04</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
         <v>10.16</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6.37</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>3.33</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-1.43</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1.94</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.51</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.39</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.12</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>0.12</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>-0.17</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>0.29</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>0.29</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>15.22</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>0.09</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>0.09</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>0.09</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11.07</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
         <v>11.07</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6.51</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1.6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>3.19</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-0.23</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1.01</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.78</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0.38</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>0.4</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>0.4</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-0.09</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>0.49</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>0.49</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>15.22</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>0.16</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>0.16</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12">
         <v>0.16</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12">
         <v>0.16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12.45</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
         <v>12.45</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>5.54</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1.72</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>4.98</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.18</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.73</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.91</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>0.48</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>0.43</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>0.43</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>0.36</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>0.36</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>15.22</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>0.12</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>0.12</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13">
         <v>0.12</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13">
         <v>0.12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>18.13</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
         <v>18.13</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>7.35</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>1.78</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>5.31</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>3.7</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.61</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>4.31</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.52</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>3.79</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>3.79</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>0.6</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>3.19</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>3.19</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>15.22</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>1.05</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>1.02</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14">
         <v>1.05</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14">
         <v>1.02</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>21.10</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
         <v>21.1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>7.58</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1.61</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>5.74</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>6.16</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.4</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>6.57</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.49</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>6.07</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>6.07</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1.01</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>5.07</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>5.07</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>15.22</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>1.66</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>1.62</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>1.66</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15">
         <v>1.62</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>20.37</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
         <v>20.37</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>7.31</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>1.64</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>5.15</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>6.07</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.92</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>6.99</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.49</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>6.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>6.5</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>1.11</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>5.39</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>5.39</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>15.22</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>1.77</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>1.72</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>1.77</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16">
         <v>1.72</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17.07</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
         <v>17.07</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>6.53</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1.54</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>4.37</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>4.63</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.65</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5.28</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.49</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>4.79</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>4.79</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>-0.27</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>5.06</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>5.06</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>15.3</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>1.66</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>1.62</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17">
         <v>1.66</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17">
         <v>1.62</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>28.19</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
         <v>28.19</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9.16</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>2.06</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>8.02</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>8.949999999999999</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1.47</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>10.42</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.32</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>10.1</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>10.1</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>8.1</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>8.1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>15.33</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>2.64</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>2.59</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18">
         <v>2.64</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18">
         <v>2.59</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>29.30</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
         <v>29.3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>11.78</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>6.09</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>9.44</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1.22</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>10.66</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.43</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>10.23</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>10.23</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>1.91</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>8.31</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>8.31</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>15.34</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>2.71</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>2.65</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19">
         <v>2.71</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19">
         <v>2.65</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>30.33</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
         <v>30.33</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>12.97</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1.25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>7.08</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>9.029999999999999</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1.47</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>10.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.42</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>10.08</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>10.08</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>1.55</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>8.529999999999999</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>8.529999999999999</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>15.42</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>2.78</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>2.73</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20">
         <v>2.78</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20">
         <v>2.73</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>31.06</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
         <v>31.06</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>13.81</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1.25</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>7.07</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>8.94</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.31</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>9.25</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>8.25</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>8.25</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>2.19</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>6.06</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>6.06</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>15.47</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>1.97</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>1.89</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21">
         <v>1.97</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21">
         <v>1.89</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>22.32</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
         <v>22.32</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>13.31</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1.68</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>4.18</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>3.14</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1.52</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>4.67</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.65</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>4.02</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>4.02</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>0.57</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>3.45</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>3.45</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22">
         <v>15.47</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>1.12</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>1.07</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>1.12</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22">
         <v>1.07</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23">
         <v>25.5</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>16.71</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1.95</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>4.47</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>2.38</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>1.12</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>3.49</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>2.94</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>2.94</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>0.58</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>2.36</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>2.36</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23">
         <v>15.49</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>0.76</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>0.73</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>0.76</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23">
         <v>0.73</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>30.51</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
         <v>30.51</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>17.12</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3.92</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>6.21</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>3.27</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.55</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>3.82</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>3.42</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>3.42</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>0.4</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>3.02</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>3.02</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24">
         <v>15.54</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24">
         <v>0.97</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>0.9399999999999999</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>0.97</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T24">
         <v>0.9399999999999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>40.46</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
         <v>40.46</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>16.07</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2.24</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>17</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>5.15</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.6899999999999999</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>5.84</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.96</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>4.88</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>4.88</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>1.41</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>3.47</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>3.47</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25">
         <v>15.56</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25">
         <v>1.12</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>1.1</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S25">
         <v>1.12</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T25">
         <v>1.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>37.01</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
         <v>37.01</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>19.25</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>3.05</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>7.69</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>7.02</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0.58</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>7.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>0.79</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>6.81</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>6.81</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>0.46</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>6.35</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>6.35</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26">
         <v>15.56</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>2.04</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S26">
         <v>2.04</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T26">
         <v>2</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>27.64</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
         <v>27.64</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>13.95</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3.05</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>8.539999999999999</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.1</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>1.15</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>3.25</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.7</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>2.54</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>2.54</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>-0.8</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>3.34</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>3.34</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27">
         <v>15.56</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27">
         <v>1.07</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>1.06</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>1.07</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T27">
         <v>1.06</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>28.03</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
         <v>28.03</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>18.14</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>2.92</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>6.42</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>0.91</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>1.46</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.79</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.68</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>0.68</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>-1.28</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>1.95</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>1.95</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28">
         <v>15.57</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28">
         <v>0.63</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>0.61</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S28">
         <v>0.63</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T28">
         <v>0.61</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>19.10</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
         <v>19.1</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>15.94</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3.05</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>5.3</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.23</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>2.41</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>-5.81</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.22</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-6.03</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>-6.03</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>0.08</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>-6.11</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>-6.11</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29">
         <v>15.57</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29">
         <v>-1.96</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>-1.95</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>-1.96</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T29">
         <v>-1.95</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30">
         <v>3.61</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>14.52</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>2.34</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>11.56</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-26.53</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.97</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>-25.56</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-26.12</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>-26.12</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>0.36</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>-26.48</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>-26.48</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30">
         <v>15.57</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30">
         <v>-8.5</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>-8.460000000000001</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S30">
         <v>-8.5</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30">
         <v>-8.460000000000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>21.54</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31">
         <v>21.54</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>8.58</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>2.31</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>1.83</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>6.26</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.25</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>6.5</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.46</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>6.04</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>6.04</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>0.01</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>6.04</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>6.04</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31">
         <v>15.57</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>1.94</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>1.93</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>1.94</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31">
         <v>1.93</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>23.19</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
         <v>23.19</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>11.54</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2.44</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.5</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>4.18</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>0.44</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>4.62</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>4.07</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>4.07</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>-0.08</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>4.15</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>4.15</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32">
         <v>15.61</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32">
         <v>1.33</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32">
         <v>1.33</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S32">
         <v>1.33</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32">
         <v>1.33</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
         <v>31.22</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>11.44</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2.72</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3.44</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>4.21</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>1.05</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>5.25</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>1.38</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>3.87</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>-23.98</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>-2.94</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>-21.04</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>-21.04</v>
       </c>
-      <c r="P33" t="n">
+      <c r="P33">
         <v>15.61</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>-6.75</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>-6.54</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>-6.75</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33">
         <v>-6.54</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>13.67</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34">
         <v>13.67</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>12.16</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2.55</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>1.48</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-7.05</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>0.73</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>-6.32</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.46</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>-6.78</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>-6.78</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>-0.62</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>-6.16</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>-6.16</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P34">
         <v>15.61</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>-1.97</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>-1.91</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S34">
         <v>-1.97</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34">
         <v>-1.91</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>31.49</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
         <v>31.49</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>12.3</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2.55</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>10.48</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>6.16</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.95</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>7.11</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.75</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>6.36</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>6.36</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>-0.09</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>6.45</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>6.45</v>
       </c>
-      <c r="P35" t="n">
+      <c r="P35">
         <v>15.61</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35">
         <v>2.06</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>1.87</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>2.06</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35">
         <v>1.87</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>39.03</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36">
         <v>39.03</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>10.56</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>2.38</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>2.57</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>11.46</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>0.85</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>12.31</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>11.37</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>11.37</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>2.35</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>9.02</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>9.02</v>
       </c>
-      <c r="P36" t="n">
+      <c r="P36">
         <v>15.61</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36">
         <v>2.89</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>2.78</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>2.89</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36">
         <v>2.78</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>35.44</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
         <v>35.44</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9.94</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2.71</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>4.55</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>7.13</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>1.89</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>9.02</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.14</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>8.880000000000001</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>-91.51000000000001</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>2.17</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>-93.68000000000001</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>-93.68000000000001</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P37">
         <v>15.68</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37">
         <v>-29.98</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>-27.69</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S37">
         <v>-29.98</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T37">
         <v>-27.69</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>42.62</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
         <v>42.62</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>12.79</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2.5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>3.58</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>9.359999999999999</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>1.41</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>10.77</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>10.21</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>10.21</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>2.46</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>7.75</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>7.75</v>
       </c>
-      <c r="P38" t="n">
+      <c r="P38">
         <v>15.74</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38">
         <v>2.36</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>2.26</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S38">
         <v>2.36</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T38">
         <v>2.26</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>37.13</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39">
         <v>37.13</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>12.9</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>3.01</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>13.33</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>7.89</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>1.91</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>9.800000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0.55</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>9.25</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>9.25</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>0.2</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>9.050000000000001</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>9.050000000000001</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P39">
         <v>18.43</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39">
         <v>2.66</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>2.55</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>2.66</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T39">
         <v>2.55</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>54.07</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40">
         <v>54.07</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>12.71</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>3.24</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>22.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>15.92</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>1.81</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>17.73</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0.35</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>17.38</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>17.38</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>3.76</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>13.62</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>13.62</v>
       </c>
-      <c r="P40" t="n">
+      <c r="P40">
         <v>18.46</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>3.89</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>3.71</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>3.89</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T40">
         <v>3.71</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>46.09</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
         <v>46.09</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>14.72</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>4.9</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>14.87</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>11.59</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>1.31</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>12.9</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>1.22</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>11.68</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>11.68</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>3.64</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>8.039999999999999</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>8.039999999999999</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P41">
         <v>18.88</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41">
         <v>2.3</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>2.24</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S41">
         <v>2.3</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T41">
         <v>2.24</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>34.17</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
         <v>34.17</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>11.51</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>5.29</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>4.44</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.31</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>1.21</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>1.52</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.66</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.86</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>0.86</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>0.23</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>0.63</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>0.63</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P42">
         <v>18.89</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42">
         <v>0.17</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>0.17</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42">
         <v>0.17</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42">
         <v>0.17</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>32.85</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43">
         <v>32.85</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>10.96</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>4.84</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>4.53</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>2.69</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>1.11</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>3.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>0.73</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>3.07</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>3.07</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>0.59</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>2.48</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>2.48</v>
       </c>
-      <c r="P43" t="n">
+      <c r="P43">
         <v>18.9</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>0.37</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>0.37</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S43">
         <v>0.37</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T43">
         <v>0.37</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>57.71</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44">
         <v>57.71</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>11.6</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>4.9</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>4.55</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>24.52</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>2.54</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>27.06</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>1.08</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>25.98</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>25.98</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>5.44</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>20.55</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>20.55</v>
       </c>
-      <c r="P44" t="n">
+      <c r="P44">
         <v>18.92</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44">
         <v>5.44</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>5.44</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S44">
         <v>5.44</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44">
         <v>5.44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>69.73</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
         <v>69.73</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>10.83</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>5.17</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>4.43</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>31.69</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>0.38</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>32.07</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>1.43</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>30.64</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>30.64</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>9.109999999999999</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>21.52</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>21.52</v>
       </c>
-      <c r="P45" t="n">
+      <c r="P45">
         <v>19.77</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45">
         <v>5.48</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>5.44</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S45">
         <v>5.48</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45">
         <v>5.44</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>55.26</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46">
         <v>55.26</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>13.42</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>5.71</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>21.21</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>14.91</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>1.41</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>16.32</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>1.24</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>15.08</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>15.08</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>3.48</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>11.6</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>11.6</v>
       </c>
-      <c r="P46" t="n">
+      <c r="P46">
         <v>19.8</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46">
         <v>2.93</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>2.9</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S46">
         <v>2.93</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46">
         <v>2.9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>70.92</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47">
         <v>70.92</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>14.1</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>6.07</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>27.54</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>23.21</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>1</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>24.21</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>1.88</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>22.33</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>22.33</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>5.15</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>17.18</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>17.18</v>
       </c>
-      <c r="P47" t="n">
+      <c r="P47">
         <v>19.82</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>4.34</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>4.29</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S47">
         <v>4.34</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47">
         <v>4.29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>